--- a/processed_vol_trend_data_long/pivots_long.xlsx
+++ b/processed_vol_trend_data_long/pivots_long.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,8 +426,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -438,12 +444,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>count_of_occurrences</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>total_count_of_occurrences</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -463,10 +487,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>564</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>28.101644245142</v>
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>126</v>
+      </c>
+      <c r="H4" t="n">
+        <v>511</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.67263427109975</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +518,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
-        <v>15.44593921275536</v>
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>88</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>294</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.79795396419437</v>
       </c>
     </row>
     <row r="6">
@@ -489,10 +549,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>806</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>40.15944195316393</v>
+        <v>92</v>
+      </c>
+      <c r="D6" t="n">
+        <v>155</v>
+      </c>
+      <c r="E6" t="n">
+        <v>71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>88</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>536</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34.27109974424553</v>
       </c>
     </row>
     <row r="7">
@@ -502,10 +580,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>16.29297458893871</v>
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="n">
+        <v>223</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.25831202046036</v>
       </c>
     </row>
     <row r="8">
@@ -516,12 +612,30 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>count_of_occurrences</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>total_count_of_occurrences</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -541,10 +655,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>539</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>26.85600398604883</v>
+        <v>97</v>
+      </c>
+      <c r="D11" t="n">
+        <v>53</v>
+      </c>
+      <c r="E11" t="n">
+        <v>89</v>
+      </c>
+      <c r="F11" t="n">
+        <v>56</v>
+      </c>
+      <c r="G11" t="n">
+        <v>135</v>
+      </c>
+      <c r="H11" t="n">
+        <v>486</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.07416879795397</v>
       </c>
     </row>
     <row r="12">
@@ -554,10 +686,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>18.18634778276034</v>
+        <v>45</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61</v>
+      </c>
+      <c r="E12" t="n">
+        <v>79</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>63</v>
+      </c>
+      <c r="H12" t="n">
+        <v>309</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19.75703324808184</v>
       </c>
     </row>
     <row r="13">
@@ -567,10 +717,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>716</v>
+        <v>82</v>
       </c>
       <c r="C13" t="n">
-        <v>35.6751370204285</v>
+        <v>80</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82</v>
+      </c>
+      <c r="E13" t="n">
+        <v>67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>166</v>
+      </c>
+      <c r="G13" t="n">
+        <v>54</v>
+      </c>
+      <c r="H13" t="n">
+        <v>531</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.95140664961637</v>
       </c>
     </row>
     <row r="14">
@@ -580,10 +748,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28251121076233</v>
+        <v>37</v>
+      </c>
+      <c r="D14" t="n">
+        <v>63</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>238</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.21739130434783</v>
       </c>
     </row>
     <row r="15">
@@ -594,12 +780,30 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>count_of_occurrences</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>total_count_of_occurrences</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -619,10 +823,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540</v>
+        <v>72</v>
       </c>
       <c r="C18" t="n">
-        <v>26.7591674925669</v>
+        <v>91</v>
+      </c>
+      <c r="D18" t="n">
+        <v>85</v>
+      </c>
+      <c r="E18" t="n">
+        <v>82</v>
+      </c>
+      <c r="F18" t="n">
+        <v>39</v>
+      </c>
+      <c r="G18" t="n">
+        <v>116</v>
+      </c>
+      <c r="H18" t="n">
+        <v>485</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31.14964675658317</v>
       </c>
     </row>
     <row r="19">
@@ -632,10 +854,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>323</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>16.00594648166501</v>
+        <v>29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>56</v>
+      </c>
+      <c r="E19" t="n">
+        <v>81</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>87</v>
+      </c>
+      <c r="H19" t="n">
+        <v>290</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18.62556197816313</v>
       </c>
     </row>
     <row r="20">
@@ -645,10 +885,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>701</v>
+        <v>111</v>
       </c>
       <c r="C20" t="n">
-        <v>34.73736372646184</v>
+        <v>94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>39</v>
+      </c>
+      <c r="F20" t="n">
+        <v>142</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>505</v>
+      </c>
+      <c r="I20" t="n">
+        <v>32.43416827231856</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +916,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>454</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>22.49752229930624</v>
+        <v>44</v>
+      </c>
+      <c r="D21" t="n">
+        <v>31</v>
+      </c>
+      <c r="E21" t="n">
+        <v>57</v>
+      </c>
+      <c r="F21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26</v>
+      </c>
+      <c r="H21" t="n">
+        <v>277</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.79062299293513</v>
       </c>
     </row>
     <row r="22">
@@ -672,12 +948,30 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>count_of_occurrences</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>total_count_of_occurrences</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -697,10 +991,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="C25" t="n">
-        <v>30.0450676014021</v>
+        <v>68</v>
+      </c>
+      <c r="D25" t="n">
+        <v>71</v>
+      </c>
+      <c r="E25" t="n">
+        <v>105</v>
+      </c>
+      <c r="F25" t="n">
+        <v>121</v>
+      </c>
+      <c r="G25" t="n">
+        <v>98</v>
+      </c>
+      <c r="H25" t="n">
+        <v>528</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33.97683397683397</v>
       </c>
     </row>
     <row r="26">
@@ -710,10 +1022,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>14.57185778668002</v>
+        <v>32</v>
+      </c>
+      <c r="D26" t="n">
+        <v>36</v>
+      </c>
+      <c r="E26" t="n">
+        <v>37</v>
+      </c>
+      <c r="F26" t="n">
+        <v>73</v>
+      </c>
+      <c r="G26" t="n">
+        <v>54</v>
+      </c>
+      <c r="H26" t="n">
+        <v>250</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.08751608751609</v>
       </c>
     </row>
     <row r="27">
@@ -723,10 +1053,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>809</v>
+        <v>123</v>
       </c>
       <c r="C27" t="n">
-        <v>40.51076614922383</v>
+        <v>101</v>
+      </c>
+      <c r="D27" t="n">
+        <v>122</v>
+      </c>
+      <c r="E27" t="n">
+        <v>108</v>
+      </c>
+      <c r="F27" t="n">
+        <v>54</v>
+      </c>
+      <c r="G27" t="n">
+        <v>69</v>
+      </c>
+      <c r="H27" t="n">
+        <v>577</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37.12998712998713</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +1084,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="C28" t="n">
-        <v>14.87230846269404</v>
+        <v>58</v>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>36</v>
+      </c>
+      <c r="H28" t="n">
+        <v>199</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.80566280566281</v>
       </c>
     </row>
   </sheetData>

--- a/processed_vol_trend_data_long/pivots_long.xlsx
+++ b/processed_vol_trend_data_long/pivots_long.xlsx
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C18" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G18" t="n">
         <v>116</v>
       </c>
       <c r="H18" t="n">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="I18" t="n">
-        <v>31.14964675658317</v>
+        <v>32.67263427109975</v>
       </c>
     </row>
     <row r="19">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
         <v>87</v>
       </c>
       <c r="H19" t="n">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="I19" t="n">
-        <v>18.62556197816313</v>
+        <v>16.43222506393862</v>
       </c>
     </row>
     <row r="20">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C20" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D20" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="G20" t="n">
         <v>33</v>
       </c>
       <c r="H20" t="n">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="I20" t="n">
-        <v>32.43416827231856</v>
+        <v>37.21227621483376</v>
       </c>
     </row>
     <row r="21">
@@ -919,25 +919,25 @@
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
         <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="I21" t="n">
-        <v>17.79062299293513</v>
+        <v>13.68286445012788</v>
       </c>
     </row>
     <row r="22">
@@ -991,28 +991,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E25" t="n">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F25" t="n">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="G25" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H25" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="I25" t="n">
-        <v>33.97683397683397</v>
+        <v>32.88177339901478</v>
       </c>
     </row>
     <row r="26">
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F26" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G26" t="n">
         <v>54</v>
       </c>
       <c r="H26" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="I26" t="n">
-        <v>16.08751608751609</v>
+        <v>17.42610837438423</v>
       </c>
     </row>
     <row r="27">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C27" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D27" t="n">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="E27" t="n">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="F27" t="n">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="G27" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="H27" t="n">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="I27" t="n">
-        <v>37.12998712998713</v>
+        <v>33.55911330049261</v>
       </c>
     </row>
     <row r="28">
@@ -1087,25 +1087,25 @@
         <v>53</v>
       </c>
       <c r="C28" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G28" t="n">
         <v>36</v>
       </c>
       <c r="H28" t="n">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="I28" t="n">
-        <v>12.80566280566281</v>
+        <v>16.13300492610837</v>
       </c>
     </row>
   </sheetData>

--- a/processed_vol_trend_data_long/pivots_long.xlsx
+++ b/processed_vol_trend_data_long/pivots_long.xlsx
@@ -491,31 +491,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I4" t="n">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="J4" t="n">
-        <v>32.71232876712329</v>
+        <v>33.36986301369863</v>
       </c>
     </row>
     <row r="5">
@@ -525,31 +525,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J5" t="n">
-        <v>16.71232876712329</v>
+        <v>16.05479452054795</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +559,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C6" t="n">
+        <v>117</v>
+      </c>
+      <c r="D6" t="n">
         <v>96</v>
       </c>
-      <c r="D6" t="n">
-        <v>92</v>
-      </c>
       <c r="E6" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F6" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G6" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I6" t="n">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="J6" t="n">
-        <v>38.19178082191781</v>
+        <v>38.9041095890411</v>
       </c>
     </row>
     <row r="7">
@@ -593,31 +593,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="n">
+        <v>69</v>
+      </c>
+      <c r="H7" t="n">
         <v>22</v>
       </c>
-      <c r="G7" t="n">
-        <v>64</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14</v>
-      </c>
       <c r="I7" t="n">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J7" t="n">
-        <v>12.38356164383562</v>
+        <v>11.67123287671233</v>
       </c>
     </row>
     <row r="8">
@@ -671,28 +671,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H11" t="n">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I11" t="n">
-        <v>33.61022364217253</v>
+        <v>33.35463258785942</v>
       </c>
     </row>
     <row r="12">
@@ -702,28 +702,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H12" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I12" t="n">
-        <v>17.18849840255591</v>
+        <v>17.38019169329073</v>
       </c>
     </row>
     <row r="13">
@@ -733,28 +733,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F13" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" t="n">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="I13" t="n">
-        <v>39.87220447284345</v>
+        <v>39.36102236421725</v>
       </c>
     </row>
     <row r="14">
@@ -764,28 +764,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27</v>
+      </c>
+      <c r="G14" t="n">
         <v>11</v>
       </c>
-      <c r="F14" t="n">
-        <v>24</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10</v>
-      </c>
       <c r="H14" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I14" t="n">
-        <v>9.329073482428115</v>
+        <v>9.904153354632587</v>
       </c>
     </row>
     <row r="15">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>66</v>
@@ -848,19 +848,19 @@
         <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F18" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G18" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="H18" t="n">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="I18" t="n">
-        <v>30.47923322683706</v>
+        <v>31.69329073482428</v>
       </c>
     </row>
     <row r="19">
@@ -870,28 +870,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H19" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="I19" t="n">
-        <v>18.40255591054313</v>
+        <v>17.31629392971246</v>
       </c>
     </row>
     <row r="20">
@@ -901,28 +901,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C20" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D20" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E20" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F20" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H20" t="n">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="I20" t="n">
-        <v>38.59424920127795</v>
+        <v>38.91373801916933</v>
       </c>
     </row>
     <row r="21">
@@ -932,28 +932,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I21" t="n">
-        <v>12.52396166134185</v>
+        <v>12.07667731629393</v>
       </c>
     </row>
     <row r="22">
@@ -965,32 +965,29 @@
     </row>
     <row r="23">
       <c r="B23" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C23" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D23" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E23" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F23" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G23" t="n">
-        <v>2021</v>
-      </c>
-      <c r="H23" t="n">
         <v>2022</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>total_count_of_occurrences</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>total_count_of_occurrences</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -1010,31 +1007,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C25" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F25" t="n">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="H25" t="n">
-        <v>96</v>
+        <v>549</v>
       </c>
       <c r="I25" t="n">
-        <v>603</v>
-      </c>
-      <c r="J25" t="n">
-        <v>33.38870431893688</v>
+        <v>35.46511627906977</v>
       </c>
     </row>
     <row r="26">
@@ -1044,31 +1038,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H26" t="n">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="I26" t="n">
-        <v>292</v>
-      </c>
-      <c r="J26" t="n">
-        <v>16.16832779623477</v>
+        <v>14.6640826873385</v>
       </c>
     </row>
     <row r="27">
@@ -1078,31 +1069,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C27" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D27" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F27" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G27" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="H27" t="n">
-        <v>67</v>
+        <v>565</v>
       </c>
       <c r="I27" t="n">
-        <v>641</v>
-      </c>
-      <c r="J27" t="n">
-        <v>35.49280177187154</v>
+        <v>36.49870801033592</v>
       </c>
     </row>
     <row r="28">
@@ -1112,31 +1100,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G28" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H28" t="n">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="I28" t="n">
-        <v>270</v>
-      </c>
-      <c r="J28" t="n">
-        <v>14.95016611295681</v>
+        <v>13.37209302325581</v>
       </c>
     </row>
   </sheetData>
